--- a/data/instructions.xlsx
+++ b/data/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\LLM\mva-llm-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4001911-A857-4106-A8B8-FD75183DFCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EC2C5-3243-424C-89A4-AC4586EFC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
 presence of a bipolar disorder</t>
   </si>
   <si>
-    <t>SEED</t>
-  </si>
-  <si>
     <t>RDD</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
 disturbance is required for diagnosis.
 • There is no history of manic, mixed or hypomanic episodes, which would indicate the
 presence of a bipolar disorder.</t>
+  </si>
+  <si>
+    <t>SEDD</t>
   </si>
 </sst>
 </file>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +426,7 @@
     </row>
     <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="5" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
